--- a/crs/p01_crs_results.xlsx
+++ b/crs/p01_crs_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davide\Documents\GitHub\raindrop_analyses_fmri_eeg\crs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E0F0E-766D-451A-AA52-115F4801FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EC0F5F-5312-4394-A2BF-F450F28385CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="23160" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>S (baseline)</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>A Day 5 pre</t>
+  </si>
+  <si>
+    <t>C (baseline)</t>
+  </si>
+  <si>
+    <t>C Day 1 pre</t>
+  </si>
+  <si>
+    <t>C Day 2 pre</t>
+  </si>
+  <si>
+    <t>C Day 2 post</t>
+  </si>
+  <si>
+    <t>C Day 3 pre</t>
+  </si>
+  <si>
+    <t>C Day 3 post</t>
+  </si>
+  <si>
+    <t>C Day 4 post</t>
+  </si>
+  <si>
+    <t>C Day 4 pre</t>
+  </si>
+  <si>
+    <t>C Day 5 pre</t>
   </si>
 </sst>
 </file>
@@ -397,19 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +509,44 @@
       <c r="X1" t="s">
         <v>17</v>
       </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44614</v>
       </c>
@@ -556,8 +619,32 @@
       <c r="X2" s="1">
         <v>44701</v>
       </c>
+      <c r="Y2" s="1">
+        <v>44708</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>44725</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44726</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>44726</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>44726</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>44727</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>44727</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44727</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -630,8 +717,44 @@
       <c r="X3">
         <v>2</v>
       </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -704,8 +827,44 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -778,8 +937,44 @@
       <c r="X5">
         <v>2</v>
       </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -852,8 +1047,44 @@
       <c r="X6">
         <v>1</v>
       </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -926,8 +1157,44 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -999,6 +1266,42 @@
       </c>
       <c r="X8">
         <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
